--- a/data/trans_dic/P16A07-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A07-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,81</t>
+          <t>0,21; 1,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,96; 4,47</t>
+          <t>0,95; 4,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,73</t>
+          <t>0,45; 2,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,61; 4,53</t>
+          <t>1,68; 4,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,93; 6,38</t>
+          <t>2,07; 6,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,2; 5,53</t>
+          <t>1,12; 5,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,02; 6,56</t>
+          <t>2,06; 6,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,07; 6,29</t>
+          <t>2,89; 6,26</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,19; 3,25</t>
+          <t>1,14; 3,08</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,4; 3,96</t>
+          <t>1,4; 4,13</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,42; 3,72</t>
+          <t>1,46; 4,08</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,53; 4,68</t>
+          <t>2,54; 4,66</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,59; 3,46</t>
+          <t>0,58; 3,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,47; 5,77</t>
+          <t>1,5; 5,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,87</t>
+          <t>0,52; 3,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,58; 4,65</t>
+          <t>1,56; 4,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,18; 9,35</t>
+          <t>4,11; 9,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,24; 6,85</t>
+          <t>2,39; 7,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,52; 5,18</t>
+          <t>1,57; 5,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,29; 8,12</t>
+          <t>4,13; 7,94</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,67; 5,61</t>
+          <t>2,73; 5,71</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,2; 5,29</t>
+          <t>2,26; 5,65</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,21; 3,48</t>
+          <t>1,16; 3,44</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,09; 5,7</t>
+          <t>3,1; 5,53</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,47; 4,09</t>
+          <t>1,41; 4,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,75; 6,35</t>
+          <t>2,81; 6,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,73; 4,86</t>
+          <t>1,71; 4,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,03; 5,74</t>
+          <t>0,91; 5,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,93; 12,8</t>
+          <t>3,81; 11,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,62; 14,1</t>
+          <t>6,73; 14,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,42; 16,62</t>
+          <t>6,81; 16,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,11; 13,01</t>
+          <t>6,35; 13,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,6; 5,36</t>
+          <t>2,42; 5,36</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,39; 7,65</t>
+          <t>4,42; 7,84</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,4; 7,12</t>
+          <t>3,31; 6,81</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,61; 6,66</t>
+          <t>1,75; 6,9</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,38; 2,95</t>
+          <t>1,31; 2,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,63; 5,02</t>
+          <t>2,57; 5,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,67; 3,62</t>
+          <t>1,67; 3,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,76; 4,87</t>
+          <t>2,73; 4,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,69; 8,39</t>
+          <t>4,54; 8,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,91; 9,78</t>
+          <t>5,82; 9,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,95; 7,05</t>
+          <t>3,78; 7,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,3; 8,57</t>
+          <t>3,15; 8,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,74; 4,49</t>
+          <t>2,87; 4,49</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,22; 6,32</t>
+          <t>4,24; 6,34</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,86; 4,57</t>
+          <t>2,93; 4,69</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,63; 6,02</t>
+          <t>3,48; 6,08</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,83; 5,9</t>
+          <t>1,93; 6,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,36; 4,1</t>
+          <t>1,52; 4,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,61; 4,2</t>
+          <t>1,6; 4,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,73; 6,43</t>
+          <t>2,57; 6,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,03; 10,83</t>
+          <t>5,84; 10,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,03; 15,16</t>
+          <t>9,93; 15,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,09; 13,48</t>
+          <t>8,97; 14,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,0; 11,34</t>
+          <t>6,58; 11,02</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,85; 8,12</t>
+          <t>4,77; 8,04</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7,1; 10,16</t>
+          <t>6,94; 10,01</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,0; 8,86</t>
+          <t>5,86; 8,92</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,85; 8,59</t>
+          <t>6,04; 8,74</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,56; 5,94</t>
+          <t>1,54; 6,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,85</t>
+          <t>0,0; 1,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,94</t>
+          <t>0,33; 2,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,71; 5,11</t>
+          <t>0,64; 5,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,17; 7,81</t>
+          <t>5,11; 7,97</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,0; 10,46</t>
+          <t>7,09; 10,65</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,95; 9,45</t>
+          <t>6,12; 9,48</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,46; 9,61</t>
+          <t>6,52; 9,73</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,71; 7,11</t>
+          <t>4,69; 7,21</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>5,75; 8,5</t>
+          <t>5,83; 8,6</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>5,06; 7,96</t>
+          <t>5,01; 7,7</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>5,21; 7,83</t>
+          <t>5,19; 7,86</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,71; 2,72</t>
+          <t>1,69; 2,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,41; 3,79</t>
+          <t>2,54; 3,72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,76; 2,8</t>
+          <t>1,74; 2,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,39; 3,89</t>
+          <t>2,48; 4,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,65; 7,3</t>
+          <t>5,63; 7,36</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,45; 9,3</t>
+          <t>7,39; 9,32</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,28; 8,03</t>
+          <t>6,18; 8,05</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,86; 7,99</t>
+          <t>5,95; 8,04</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,8; 4,83</t>
+          <t>3,83; 4,85</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>5,21; 6,43</t>
+          <t>5,16; 6,34</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>4,18; 5,29</t>
+          <t>4,18; 5,28</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>4,48; 5,8</t>
+          <t>4,47; 5,81</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido antidepresivos en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3591</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>9997</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>4974</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>13865</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>11573</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>8270</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>13460</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>19478</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>15164</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>18268</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>18435</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>33343</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1014; 9093</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4168; 19197</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1914; 10834</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>8491; 22678</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>6348; 20714</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>3521; 16949</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>7167; 22819</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>12910; 28029</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>8866; 24007</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>10524; 31074</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>11301; 31688</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>24233; 44438</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>5976</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>12568</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>4962</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>12807</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>23478</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>14204</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>11100</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>22343</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>29454</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>26771</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>16062</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>35150</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2118; 12758</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>6275; 23254</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1948; 11634</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>7032; 21805</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>15290; 34662</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>8064; 23837</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>5846; 20462</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>15803; 30374</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>20173; 42159</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>17064; 42630</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>8713; 25750</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>25895; 46132</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>13724</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>26679</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>15380</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>20937</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>12309</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>25587</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>18001</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>15541</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>26033</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>52266</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>33381</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>36478</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7638; 23299</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>17621; 39516</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8938; 24945</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6095; 37896</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>6385; 20099</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>17367; 37154</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>11317; 28189</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10592; 21881</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>17181; 38050</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>39101; 69346</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>22794; 46857</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>14651; 57623</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>25032</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>42745</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>28869</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>37884</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>44580</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>58521</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>43390</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>62272</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>69613</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>101266</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>72258</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>100157</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>16198; 36365</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>29708; 58231</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>19176; 40626</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>28237; 51440</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>32450; 57899</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>44648; 74624</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>31190; 58602</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>30782; 83924</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>56016; 87596</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>81517; 122025</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>57834; 92747</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>69997; 122360</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>12321</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>12862</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>16858</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>19570</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>46082</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>94193</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>82706</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>76747</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>58403</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>107055</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>99563</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>96317</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>6747; 21529</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>7721; 21219</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>9911; 26359</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>12181; 29537</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>33227; 59382</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>75383; 114264</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>66191; 103698</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>55216; 92443</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>43763; 73809</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>87997; 127007</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>79607; 121246</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>79328; 114660</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>9456</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>971</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3164</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>4671</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>80158</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>95830</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>83034</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>59556</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>89614</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>96800</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>86198</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>64226</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>4597; 17892</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4466</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>942; 8053</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>1545; 12140</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>63763; 99579</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>78263; 117468</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>66174; 102576</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>49598; 73979</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>72617; 111600</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>79810; 117768</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>68559; 105366</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>51925; 78641</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>70100</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>105822</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>74207</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>109735</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>218181</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>296605</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>251691</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>255937</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>288281</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>402427</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>325898</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>365672</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>55240; 87257</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>86605; 126874</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>59043; 93699</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>83690; 134917</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>190073; 248465</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>261505; 329893</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>218169; 284321</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>212498; 287164</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>254426; 322310</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>358980; 440735</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>289480; 364916</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>310369; 403333</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P16A07-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A07-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
